--- a/timetabling_GA/results/HK3_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK3_CT01/TKB_Semester_Schedule.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -184,10 +184,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,36 +694,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -733,57 +728,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -792,9 +780,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -804,51 +792,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -856,46 +842,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -905,25 +879,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -937,10 +904,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -948,12 +921,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -965,11 +939,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -979,16 +953,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -1017,26 +991,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1048,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,36 +1224,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1228,57 +1258,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1287,9 +1310,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -1299,51 +1322,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -1351,46 +1372,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -1400,25 +1409,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -1432,10 +1434,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -1443,12 +1451,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1460,11 +1469,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -1474,16 +1483,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -1512,26 +1521,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1543,7 +1613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,36 +1754,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1723,57 +1788,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1782,9 +1840,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -1794,51 +1852,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -1846,46 +1902,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -1895,25 +1939,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -1927,10 +1964,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -1938,12 +1981,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1955,11 +1999,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -1969,16 +2013,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -2007,26 +2051,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2038,7 +2143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,36 +2284,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2218,57 +2318,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2277,9 +2370,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -2289,51 +2382,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -2341,46 +2432,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -2390,25 +2469,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -2422,10 +2494,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -2433,12 +2511,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -2450,11 +2529,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -2464,16 +2543,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -2502,26 +2581,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2533,7 +2673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,36 +2814,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2713,57 +2848,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2772,9 +2900,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -2784,51 +2912,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -2836,46 +2962,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -2885,25 +2999,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -2917,10 +3024,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -2928,12 +3041,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -2945,11 +3059,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -2959,16 +3073,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -2997,26 +3111,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3028,7 +3203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3169,36 +3344,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3208,57 +3378,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3267,9 +3430,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -3279,51 +3442,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -3331,46 +3492,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -3380,25 +3529,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -3412,10 +3554,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -3423,12 +3571,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -3440,11 +3589,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -3454,16 +3603,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -3492,26 +3641,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3523,7 +3733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3664,36 +3874,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3703,57 +3908,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3762,9 +3960,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -3774,51 +3972,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -3826,46 +4022,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -3875,25 +4059,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -3907,10 +4084,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -3918,12 +4101,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -3935,11 +4119,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -3949,16 +4133,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -3987,26 +4171,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4018,7 +4263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,36 +4404,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -4198,57 +4438,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4257,9 +4490,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -4269,51 +4502,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -4321,46 +4552,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -4370,25 +4589,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -4402,10 +4614,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -4413,12 +4631,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -4430,11 +4649,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -4444,16 +4663,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -4482,26 +4701,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4513,7 +4793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4654,36 +4934,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -4693,57 +4968,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4752,9 +5020,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -4764,51 +5032,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -4816,46 +5082,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -4865,25 +5119,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -4897,10 +5144,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -4908,12 +5161,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -4925,11 +5179,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -4939,16 +5193,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -4977,26 +5231,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5008,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5149,36 +5464,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -5188,57 +5498,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5247,9 +5550,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -5259,51 +5562,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -5311,46 +5612,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -5360,25 +5649,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -5392,10 +5674,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -5403,12 +5691,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -5420,11 +5709,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -5434,16 +5723,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -5472,26 +5761,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5503,7 +5853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5644,36 +5994,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -5683,57 +6028,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5742,9 +6080,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -5754,51 +6092,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -5806,46 +6142,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -5855,25 +6179,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -5887,10 +6204,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -5898,12 +6221,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -5915,11 +6239,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -5929,16 +6253,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -5967,26 +6291,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5998,7 +6383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6139,36 +6524,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -6178,57 +6558,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -6237,9 +6610,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -6249,51 +6622,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -6301,46 +6672,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -6350,25 +6709,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -6382,10 +6734,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -6393,12 +6751,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -6410,11 +6769,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -6424,16 +6783,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -6462,26 +6821,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6493,7 +6913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6634,36 +7054,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -6673,57 +7088,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -6732,9 +7140,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -6744,51 +7152,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -6796,46 +7202,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -6845,25 +7239,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -6877,10 +7264,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -6888,12 +7281,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -6905,11 +7299,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -6919,16 +7313,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -6957,26 +7351,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6988,7 +7443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7129,36 +7584,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -7168,57 +7618,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -7227,9 +7670,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -7239,51 +7682,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -7291,46 +7732,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -7340,25 +7769,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -7372,10 +7794,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -7383,12 +7811,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -7400,11 +7829,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -7414,16 +7843,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -7452,26 +7881,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7483,7 +7973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7624,36 +8114,31 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB03
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -7663,57 +8148,50 @@
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R102
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -7722,9 +8200,9 @@
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
 (Lý thuyết)
 Phòng: R104
 GV: Trần Văn G</t>
@@ -7734,51 +8212,49 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E13" s="8" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB02
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -7786,46 +8262,34 @@
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="12" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -7835,25 +8299,18 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
-GV: Trần Văn G</t>
-        </is>
-      </c>
+      <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
-GV: Trần Văn G</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="10" t="n"/>
@@ -7867,10 +8324,16 @@
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
+GV: Trần Văn G</t>
+        </is>
+      </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -7878,12 +8341,13 @@
 GV: Trần Văn G</t>
         </is>
       </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -7895,11 +8359,11 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="12" t="inlineStr">
-        <is>
-          <t>Vật lý đại cương
-(Thực hành)
-Phòng: LAB03
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R104
 GV: Trần Văn G</t>
         </is>
       </c>
@@ -7909,16 +8373,16 @@
       <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
         <is>
           <t>Toán cao cấp
 (Lý thuyết)
@@ -7947,26 +8411,87 @@
       <c r="F20" s="8" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Toán cao cấp
-(Lý thuyết)
-Phòng: R104
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
 GV: Trần Văn G</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB01
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Toán cao cấp
+(Lý thuyết)
+Phòng: R102
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Vật lý đại cương
+(Thực hành)
+Phòng: LAB02
+GV: Trần Văn G</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
